--- a/product_backlog_apdigi.xlsx
+++ b/product_backlog_apdigi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\public_html\digiprojekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82B0AFD-EB15-4DBD-B33E-D9D3DD3B3569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D1F68-CA47-4295-86C6-FBD77CAC2F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>WHO</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Luodaan paikka, jossa ryhmä voi työskennellä yhdessä, säilyttää tiedostoja yms.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
